--- a/outputs/ML_Results/carown_LR/France_other.xlsx
+++ b/outputs/ML_Results/carown_LR/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ23" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ7" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ11" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ14" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ0" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ8" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ18" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ14" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.849977782744961</v>
+        <v>1.813174806798406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005457712467972681</v>
+        <v>0.005104391834953413</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.01987641167151565</v>
+        <v>0.08344541531016812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9513605033388354</v>
+        <v>0.8025015870775489</v>
       </c>
     </row>
     <row r="4">
@@ -492,257 +492,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.02877854384145</v>
+        <v>-0.9502765436374905</v>
       </c>
       <c r="C4" t="n">
-        <v>6.526693639291336e-08</v>
+        <v>5.06489104903999e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9883823135984292</v>
+        <v>-0.8626577484887158</v>
       </c>
       <c r="C5" t="n">
-        <v>7.952078357067751e-06</v>
+        <v>9.004023125104923e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7816101149492579</v>
+        <v>-1.065318792408792</v>
       </c>
       <c r="C6" t="n">
-        <v>6.995008252356003e-05</v>
+        <v>3.999890568030412e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.320934653284165</v>
+        <v>0.0238249556205674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008232482587260512</v>
+        <v>0.8503324805206582</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009062673411399579</v>
+        <v>0.0008950411732451256</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9943503359752708</v>
+        <v>9.921244341806289e-38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008661657746258376</v>
+        <v>-0.01089200748048978</v>
       </c>
       <c r="C9" t="n">
-        <v>9.94389504191278e-36</v>
+        <v>0.00109286766608866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.007574568434656207</v>
+        <v>0.5813962405755028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02355850155563178</v>
+        <v>2.016185532902557e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6649071244249931</v>
+        <v>0.8130919872209085</v>
       </c>
       <c r="C11" t="n">
-        <v>2.955583469933996e-09</v>
+        <v>9.127692971165613e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7903012250888896</v>
+        <v>0.4190505469608328</v>
       </c>
       <c r="C12" t="n">
-        <v>3.362170379413745e-10</v>
+        <v>0.0163894393632822</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2966670102579541</v>
+        <v>-5.524183628065876e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09148104694079812</v>
+        <v>0.108945257087465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.053720393150832e-05</v>
+        <v>-1.212647396431365e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1396024033139322</v>
+        <v>0.9723585751489892</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.168153427184017e-08</v>
+        <v>-0.03494523266907492</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7349810761054379</v>
+        <v>0.318845553079817</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.07090120079415983</v>
+        <v>0.03381281514527027</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04390218522425281</v>
+        <v>0.09156221574747328</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.044859730186637</v>
+        <v>-2.147790325649471</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02740948968704554</v>
+        <v>9.511861440370524e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.974166604455747</v>
+        <v>-0.006689850331062489</v>
       </c>
       <c r="C18" t="n">
-        <v>6.86334042902923e-06</v>
+        <v>0.03901661917909389</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005600493459356264</v>
+        <v>-0.002362155020529284</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08418644460505367</v>
+        <v>0.4889582909745394</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.000983589721282842</v>
+        <v>4.589083288612381</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7870245018810733</v>
+        <v>3.07256618584674e-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.991573351596887</v>
+        <v>4.404402181072343</v>
       </c>
       <c r="C21" t="n">
-        <v>7.217696697551501e-06</v>
+        <v>5.256256710765216e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.585583535415331</v>
+        <v>-3.772350148190748</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002044940260499534</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.569921489202416</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.831745111040934e-05</v>
+        <v>6.198156556309899e-06</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.925544887814093</v>
+        <v>1.565783875185682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002853801059630661</v>
+        <v>0.01709487733296084</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2937796839352779</v>
+        <v>0.0009685071539861091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3824020367995827</v>
+        <v>0.9975996425587864</v>
       </c>
     </row>
     <row r="4">
@@ -814,257 +801,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.032656508182731</v>
+        <v>-0.9757864100965854</v>
       </c>
       <c r="C4" t="n">
-        <v>4.96318928562155e-08</v>
+        <v>1.902865079097114e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9195962756087712</v>
+        <v>-0.7624867616448054</v>
       </c>
       <c r="C5" t="n">
-        <v>3.550696480803705e-05</v>
+        <v>7.938988741677851e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9159023495750733</v>
+        <v>-0.8798550530051668</v>
       </c>
       <c r="C6" t="n">
-        <v>2.645194682384642e-06</v>
+        <v>3.243322416679518e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.174911558034668</v>
+        <v>0.003114318123036901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02350685107321207</v>
+        <v>0.9800828724867547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.07567695755462789</v>
+        <v>0.0009282194522482169</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5524142329973249</v>
+        <v>1.714328436081758e-39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009211800750080503</v>
+        <v>-0.01125454072926269</v>
       </c>
       <c r="C9" t="n">
-        <v>5.651361935855089e-39</v>
+        <v>0.0007732259287870918</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.009492340106289337</v>
+        <v>0.620141642401454</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004384027460727091</v>
+        <v>3.240845009079462e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5762449935296543</v>
+        <v>0.6513770351228277</v>
       </c>
       <c r="C11" t="n">
-        <v>2.790919507902927e-07</v>
+        <v>2.339466618474136e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7371914462858368</v>
+        <v>0.3483045222368187</v>
       </c>
       <c r="C12" t="n">
-        <v>4.814154864697745e-09</v>
+        <v>0.04773342047018968</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.280839292115023</v>
+        <v>-5.585317072439002e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1076347909669645</v>
+        <v>0.1040432866146453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.841769532306732e-05</v>
+        <v>-9.435391038555825e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0921042935768755</v>
+        <v>0.7843099151190677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.270436314350823e-08</v>
+        <v>-0.03154410209787165</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7186651336751411</v>
+        <v>0.3750189970890007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03625393513977169</v>
+        <v>0.04598526709392593</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3027392732058497</v>
+        <v>0.02546250319552558</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04692798714106036</v>
+        <v>-2.009157662310828</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02351629895659952</v>
+        <v>4.661879417062339e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.24170844430667</v>
+        <v>-0.004480863091115468</v>
       </c>
       <c r="C18" t="n">
-        <v>4.506246197318205e-07</v>
+        <v>0.1670808570942043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005238615519090704</v>
+        <v>-0.0004666313292058907</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1074579669679367</v>
+        <v>0.895395780735512</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002754187771873254</v>
+        <v>3.718672140990676</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4238135850332088</v>
+        <v>2.757332034360551e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.988882070658912</v>
+        <v>3.271962843060712</v>
       </c>
       <c r="C21" t="n">
-        <v>8.307766637145458e-06</v>
+        <v>0.0006355553033106536</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.388348312818729</v>
+        <v>-3.104717277861679</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004105291148679137</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.378951705106005</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4.618141543268132e-05</v>
+        <v>0.0001945685466861046</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.769771913557845</v>
+        <v>1.387184252976138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005542173142990036</v>
+        <v>0.03258097237474563</v>
       </c>
     </row>
     <row r="3">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1712516679533814</v>
+        <v>0.1607581396822209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6018583895409303</v>
+        <v>0.6159726114168804</v>
       </c>
     </row>
     <row r="4">
@@ -1136,257 +1110,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9133814677560352</v>
+        <v>-0.8427262671314113</v>
       </c>
       <c r="C4" t="n">
-        <v>1.077913923544224e-06</v>
+        <v>5.491190144914988e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9139875504299872</v>
+        <v>-0.6673735199257992</v>
       </c>
       <c r="C5" t="n">
-        <v>3.154463620574011e-05</v>
+        <v>0.0004749216525973628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7733621964099197</v>
+        <v>-0.8843124604032629</v>
       </c>
       <c r="C6" t="n">
-        <v>5.997835509411497e-05</v>
+        <v>2.481591527522136e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.030325485532406</v>
+        <v>-0.008456633578425934</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04112594723506927</v>
+        <v>0.9448644563737841</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.001150285688796129</v>
+        <v>0.0008892394162480711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9926910082593271</v>
+        <v>3.724209076716121e-38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008675461136370218</v>
+        <v>-0.005829403254286632</v>
       </c>
       <c r="C9" t="n">
-        <v>2.747201894544823e-36</v>
+        <v>0.07883700599114134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.007379367184278466</v>
+        <v>0.636278689365345</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02588919277873288</v>
+        <v>8.905235174613364e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6240939821619113</v>
+        <v>0.7514271007430828</v>
       </c>
       <c r="C11" t="n">
-        <v>1.70590360354756e-08</v>
+        <v>1.452072102594885e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.689360372798125</v>
+        <v>0.2663390709605743</v>
       </c>
       <c r="C12" t="n">
-        <v>4.223072926148784e-08</v>
+        <v>0.1274552505217131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2467201083983429</v>
+        <v>-5.481690525255317e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1568497728935351</v>
+        <v>0.1101853154093256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.017180485788199e-05</v>
+        <v>1.895915066888887e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07622802402001545</v>
+        <v>0.5862315933517547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.256562922499182e-09</v>
+        <v>-0.04777048761937593</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9707506099797609</v>
+        <v>0.1715663587231055</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0476444268233477</v>
+        <v>0.04368215522939035</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1738975745473157</v>
+        <v>0.02993482942194262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0492931625071656</v>
+        <v>-2.103788832806742</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01411355910991781</v>
+        <v>2.168610500907534e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.477991950299225</v>
+        <v>-0.007177694973363112</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0006527793361241015</v>
+        <v>0.02564373983075239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007154446304242182</v>
+        <v>-0.0007980770158964811</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02433596096587313</v>
+        <v>0.8220936469795013</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002606032118833922</v>
+        <v>3.58787539957818</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4324694163537437</v>
+        <v>5.275878164383847e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.783443765002536</v>
+        <v>2.924497216096088</v>
       </c>
       <c r="C21" t="n">
-        <v>1.76586824782303e-05</v>
+        <v>0.002215415866580119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.344125342310933</v>
+        <v>-3.002362142107893</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004435523676172251</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.18528980557234</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0001096961432503445</v>
+        <v>0.0002849606264002294</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.049237637066069</v>
+        <v>1.878342335654579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001658751444116925</v>
+        <v>0.004521341994143597</v>
       </c>
     </row>
     <row r="3">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3281783358720686</v>
+        <v>0.2632864117744441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3135755420626131</v>
+        <v>0.4283461487289144</v>
       </c>
     </row>
     <row r="4">
@@ -1458,257 +1419,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9723185241922502</v>
+        <v>-0.8679987606092295</v>
       </c>
       <c r="C4" t="n">
-        <v>1.644753710485434e-07</v>
+        <v>5.660059730310935e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9078699278774967</v>
+        <v>-0.7128669253143962</v>
       </c>
       <c r="C5" t="n">
-        <v>3.010329381241933e-05</v>
+        <v>0.0002996842232792962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8406242799979946</v>
+        <v>-0.9345474320382953</v>
       </c>
       <c r="C6" t="n">
-        <v>1.066461625326391e-05</v>
+        <v>6.63470760743353e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.674355012036321</v>
+        <v>-0.01714100716259191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2258525918159602</v>
+        <v>0.8961935354795173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.07735763465225061</v>
+        <v>0.0009083787313151873</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5261339909845417</v>
+        <v>2.408803738617958e-39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008652275539246913</v>
+        <v>-0.008953923721124206</v>
       </c>
       <c r="C9" t="n">
-        <v>1.173029432181535e-36</v>
+        <v>0.007443067137626981</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.008594301004995883</v>
+        <v>0.6037796501132942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009715028385660348</v>
+        <v>5.078761629606387e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6337871782135813</v>
+        <v>0.727985915598375</v>
       </c>
       <c r="C11" t="n">
-        <v>1.033827534268207e-08</v>
+        <v>7.069023220340713e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6234278987969851</v>
+        <v>0.3166530700296515</v>
       </c>
       <c r="C12" t="n">
-        <v>6.057063725667519e-07</v>
+        <v>0.06996831377358399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2556989884955391</v>
+        <v>-5.523440575330044e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1446919041183651</v>
+        <v>0.1102818358018725</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.752698984839014e-05</v>
+        <v>9.201560504528055e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08996071738044478</v>
+        <v>0.7948752287631995</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.052133543500636e-09</v>
+        <v>-0.05444760121544806</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9052828731151126</v>
+        <v>0.1213412326342785</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03043165879627675</v>
+        <v>0.05068343958747529</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3757809679136834</v>
+        <v>0.01316497072240227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02655243253929243</v>
+        <v>-1.799392904708549</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1793260107263169</v>
+        <v>3.916101551573561e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.110345295490032</v>
+        <v>-0.007700536097564215</v>
       </c>
       <c r="C18" t="n">
-        <v>1.001606487745428e-06</v>
+        <v>0.01709911601672692</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006431628753579184</v>
+        <v>-0.002683541284870736</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04406379468177499</v>
+        <v>0.4573543193578146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001289011094824653</v>
+        <v>4.318263560665627</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7137040446220705</v>
+        <v>1.143964855980598e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.976308749708019</v>
+        <v>3.771575703619984</v>
       </c>
       <c r="C21" t="n">
-        <v>7.419758187759856e-06</v>
+        <v>7.285483907079683e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.445647792404716</v>
+        <v>-3.742925260952057</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000329288939072274</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.439481500034677</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.207898552381426e-05</v>
+        <v>6.098743840846794e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.827298421234746</v>
+        <v>1.859075000983697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004921925827252651</v>
+        <v>0.004831717742597535</v>
       </c>
     </row>
     <row r="3">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3411437619399748</v>
+        <v>0.274515276361752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2980089887653969</v>
+        <v>0.3983630834081353</v>
       </c>
     </row>
     <row r="4">
@@ -1780,257 +1728,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9125661412994188</v>
+        <v>-0.9702521165713696</v>
       </c>
       <c r="C4" t="n">
-        <v>7.247087487422408e-07</v>
+        <v>1.457210949291738e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8063973663823848</v>
+        <v>-0.785704110944658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001633420785013293</v>
+        <v>3.628885857531557e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7049345923747656</v>
+        <v>-0.8636248276118563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002020919302146174</v>
+        <v>3.918964300530722e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9520546795756047</v>
+        <v>-0.04226383751918579</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08420287071300363</v>
+        <v>0.7286051993906528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04789700756560675</v>
+        <v>0.0009039166589027113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6906686649154351</v>
+        <v>6.115576068303767e-39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008556997571978768</v>
+        <v>-0.01016883919041443</v>
       </c>
       <c r="C9" t="n">
-        <v>4.854789577328118e-36</v>
+        <v>0.002016574023734333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.009280151479893488</v>
+        <v>0.6166961669575062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005969975176549207</v>
+        <v>2.785890109882327e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6068003234414191</v>
+        <v>0.6576309139508465</v>
       </c>
       <c r="C11" t="n">
-        <v>5.837150317859198e-08</v>
+        <v>1.278342523974316e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7724148524032074</v>
+        <v>0.3997152730880519</v>
       </c>
       <c r="C12" t="n">
-        <v>7.449215507557156e-10</v>
+        <v>0.02145153124892551</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3764100575098253</v>
+        <v>-3.483224190210311e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03394582127384124</v>
+        <v>0.3081254964245593</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.328387676901931e-05</v>
+        <v>-1.582476032313192e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06622627437522124</v>
+        <v>0.6436100553533779</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.320724076208486e-08</v>
+        <v>-0.0172698724414879</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7060394537474984</v>
+        <v>0.6190510612699975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03863469214317693</v>
+        <v>0.0360749877408282</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2743016667432764</v>
+        <v>0.07150462296696468</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03951125949973854</v>
+        <v>-1.913330490332726</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05266192620711236</v>
+        <v>9.370127732823579e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.92887529397008</v>
+        <v>-0.007272851759850706</v>
       </c>
       <c r="C18" t="n">
-        <v>9.084816678711834e-06</v>
+        <v>0.02434802449389608</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007766159690640997</v>
+        <v>-0.002921276624899535</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01571710876397203</v>
+        <v>0.4176377432252515</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002060134311628294</v>
+        <v>3.166785938951158</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5544358427380024</v>
+        <v>0.0003775816335200737</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.199920825525982</v>
+        <v>3.203719128071288</v>
       </c>
       <c r="C21" t="n">
-        <v>2.104490046432457e-06</v>
+        <v>0.0008542327706604719</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.584546338063413</v>
+        <v>-2.74118405098837</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001738179530787846</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.402660097099419</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4.030964882742225e-05</v>
+        <v>0.0009667241946657101</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.55836387357226</v>
+        <v>1.941884670395376</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01753025840981225</v>
+        <v>0.002446607422699896</v>
       </c>
     </row>
     <row r="3">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1018813183529846</v>
+        <v>0.2802693738529037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.748459000360002</v>
+        <v>0.3941170180305159</v>
       </c>
     </row>
     <row r="4">
@@ -2102,257 +2037,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9377747838781199</v>
+        <v>-0.9739170816976317</v>
       </c>
       <c r="C4" t="n">
-        <v>3.700340821102249e-07</v>
+        <v>1.4169155684124e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.910591448188789</v>
+        <v>-0.908803906350575</v>
       </c>
       <c r="C5" t="n">
-        <v>2.96950679120518e-05</v>
+        <v>1.713049943892752e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7275607023553945</v>
+        <v>-0.8775041054294036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001269935589978262</v>
+        <v>3.322675518417612e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8660945988712777</v>
+        <v>-0.07442406416355679</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1117817954373955</v>
+        <v>0.5366935854166255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04634331764697527</v>
+        <v>0.0008616633214419922</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7006030206014754</v>
+        <v>1.745510559736454e-35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009549853424979969</v>
+        <v>-0.007675383672555891</v>
       </c>
       <c r="C9" t="n">
-        <v>4.514133160767653e-41</v>
+        <v>0.02174928139896592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.009719868434429093</v>
+        <v>0.6839365398830305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003460414564156825</v>
+        <v>9.135692240024245e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6139218985367219</v>
+        <v>0.7330618401469788</v>
       </c>
       <c r="C11" t="n">
-        <v>3.128950192290585e-08</v>
+        <v>5.418335873469133e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6809799537500417</v>
+        <v>0.3454191258498391</v>
       </c>
       <c r="C12" t="n">
-        <v>5.366461140089153e-08</v>
+        <v>0.05106427288462257</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3624202069149254</v>
+        <v>-6.172274738663715e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03802746678165199</v>
+        <v>0.07633830531131879</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.373121874893551e-05</v>
+        <v>2.088189257292385e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4875687975131526</v>
+        <v>0.5539779612820075</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.184993593626285e-08</v>
+        <v>-0.06630927869660801</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3537045005219717</v>
+        <v>0.06012876689971022</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02592754292022312</v>
+        <v>0.05310982770803135</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4634345063978526</v>
+        <v>0.009873133907030806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04260608974898736</v>
+        <v>-1.927510834464014</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04102507225905114</v>
+        <v>1.028930689489767e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.950642995708104</v>
+        <v>-0.007933497491248312</v>
       </c>
       <c r="C18" t="n">
-        <v>8.17497360632112e-06</v>
+        <v>0.0134910464296705</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006779082582963819</v>
+        <v>-0.002577706456781253</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03616728669071567</v>
+        <v>0.4448538631403028</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0009523870800833377</v>
+        <v>4.142987219316782</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7938970725912107</v>
+        <v>4.302703538904852e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.479864872146491</v>
+        <v>3.357313790923919</v>
       </c>
       <c r="C21" t="n">
-        <v>8.82410583512882e-05</v>
+        <v>0.0005840985233270355</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.574807853114555</v>
+        <v>-3.3716683701274</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001930972509521226</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.010886235610964</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0002819784671159455</v>
+        <v>6.116005069545997e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.639441251018229</v>
+        <v>1.449560191455598</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01262248697854727</v>
+        <v>0.02591068052280267</v>
       </c>
     </row>
     <row r="3">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2626886404892486</v>
+        <v>0.1345889448775641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4285890549247656</v>
+        <v>0.6712053609646585</v>
       </c>
     </row>
     <row r="4">
@@ -2424,257 +2346,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9589220411888675</v>
+        <v>-0.9800776494665505</v>
       </c>
       <c r="C4" t="n">
-        <v>2.700957682839768e-07</v>
+        <v>8.464886455478531e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8775454907081709</v>
+        <v>-0.7599763257463765</v>
       </c>
       <c r="C5" t="n">
-        <v>5.856930743974461e-05</v>
+        <v>5.228310677495268e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8106809217371581</v>
+        <v>-1.001487686443425</v>
       </c>
       <c r="C6" t="n">
-        <v>2.465948063985537e-05</v>
+        <v>1.131030185794503e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7563867241369304</v>
+        <v>-0.03184422301999832</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1496094205022752</v>
+        <v>0.7882201937093651</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02213672258350184</v>
+        <v>0.0008768758151306486</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8581705728179956</v>
+        <v>1.396849232938283e-37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008598904131820854</v>
+        <v>-0.00726908423132708</v>
       </c>
       <c r="C9" t="n">
-        <v>1.651508599763829e-35</v>
+        <v>0.02985570408353964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.00896501007889605</v>
+        <v>0.6244341425575153</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007609823010258994</v>
+        <v>1.898487314171218e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6463015020489947</v>
+        <v>0.7266180301589046</v>
       </c>
       <c r="C11" t="n">
-        <v>7.279578378791843e-09</v>
+        <v>6.163198651467403e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7327888495910158</v>
+        <v>0.2893584609034289</v>
       </c>
       <c r="C12" t="n">
-        <v>5.569694869193575e-09</v>
+        <v>0.100630889252375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.382308493240676</v>
+        <v>-7.877579005588995e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03099281734784065</v>
+        <v>0.02033277215018855</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.172573930868267e-05</v>
+        <v>6.935553841620705e-10</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0755235524566561</v>
+        <v>0.9838209717651452</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.050498635331544e-08</v>
+        <v>-0.0561351701139961</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7640348414006912</v>
+        <v>0.1083291686742911</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01989454878102025</v>
+        <v>0.04441872350990467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5774241401328328</v>
+        <v>0.02988010075767602</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04854850427172049</v>
+        <v>-1.624895955388881</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01698213186156891</v>
+        <v>0.0002065281901686521</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.872880811540305</v>
+        <v>-0.004194098688910193</v>
       </c>
       <c r="C18" t="n">
-        <v>1.909823100112314e-05</v>
+        <v>0.1977501925446381</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006611004231672769</v>
+        <v>0.0001627405101375958</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04236186561711802</v>
+        <v>0.96438856607888</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001983824565923708</v>
+        <v>3.717765132853278</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5781878834550336</v>
+        <v>2.872016775387366e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.632557463098586</v>
+        <v>2.910876290627638</v>
       </c>
       <c r="C21" t="n">
-        <v>5.31938641374686e-05</v>
+        <v>0.002286178287006878</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.218369781903951</v>
+        <v>-3.000058109166132</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0008107342144950896</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.988067743159048</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.000376773596579799</v>
+        <v>0.0002923346785128166</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.695203866676353</v>
+        <v>2.041614475544934</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008576484975834598</v>
+        <v>0.001771384766418845</v>
       </c>
     </row>
     <row r="3">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03291014683180311</v>
+        <v>0.1608450351290502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9188790076682093</v>
+        <v>0.6220525102376362</v>
       </c>
     </row>
     <row r="4">
@@ -2746,257 +2655,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9119249991468337</v>
+        <v>-0.9842840709257696</v>
       </c>
       <c r="C4" t="n">
-        <v>1.293510439282943e-06</v>
+        <v>1.376520590729936e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.056139111700342</v>
+        <v>-0.7273035436088386</v>
       </c>
       <c r="C5" t="n">
-        <v>9.431823330074834e-07</v>
+        <v>0.0001692944061930148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7599793828918414</v>
+        <v>-0.8063040423300353</v>
       </c>
       <c r="C6" t="n">
-        <v>8.299256517996718e-05</v>
+        <v>0.0001899310457905731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7829452025217828</v>
+        <v>-0.02496116432413896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1519182959009163</v>
+        <v>0.841707549748282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03956305671910534</v>
+        <v>0.0008749859244322903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7534152326407602</v>
+        <v>7.847123698807711e-37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008793888392895974</v>
+        <v>-0.009530729102457365</v>
       </c>
       <c r="C9" t="n">
-        <v>6.111586971154173e-38</v>
+        <v>0.004440302491696252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.009392904923229226</v>
+        <v>0.6605149844985304</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004449693342147327</v>
+        <v>3.416215034476677e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6604509347408068</v>
+        <v>0.6656907225811025</v>
       </c>
       <c r="C11" t="n">
-        <v>2.921738494000104e-09</v>
+        <v>1.027830913180144e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7245833673875411</v>
+        <v>0.2715918603538913</v>
       </c>
       <c r="C12" t="n">
-        <v>4.761374144950988e-09</v>
+        <v>0.1215796870999206</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3958599377406312</v>
+        <v>-5.953780296394347e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02194254796448361</v>
+        <v>0.0847286327443143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.484766118692219e-05</v>
+        <v>9.844805421249736e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06466041835853821</v>
+        <v>0.780845569328156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.133443593785598e-08</v>
+        <v>-0.04271853086740748</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5553390225074539</v>
+        <v>0.2275398890322026</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.04382043891260502</v>
+        <v>0.05238927804852456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2110607864440439</v>
+        <v>0.01136871722418901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04504150035935109</v>
+        <v>-1.94654068459514</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02533145506729343</v>
+        <v>8.290390433960836e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.143815959480081</v>
+        <v>-0.006256245786118954</v>
       </c>
       <c r="C18" t="n">
-        <v>1.423783870749621e-06</v>
+        <v>0.05206849296074251</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007393751534370056</v>
+        <v>-0.003020915317806658</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02177552120211919</v>
+        <v>0.3795923443862783</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002881452539070586</v>
+        <v>4.247250541819637</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3948959899904826</v>
+        <v>1.517481011343489e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.181368798122233</v>
+        <v>3.563560022352247</v>
       </c>
       <c r="C21" t="n">
-        <v>2.541840043162906e-06</v>
+        <v>0.0001617985387513607</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.399794663316267</v>
+        <v>-3.710074734893025</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0003309117122271123</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.336220611207529</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5.085880099642627e-05</v>
+        <v>6.578644789055394e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +2906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.527731064267159</v>
+        <v>1.922275694347778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01965186709173487</v>
+        <v>0.003073341324957174</v>
       </c>
     </row>
     <row r="3">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03005130827555192</v>
+        <v>0.1027692756898404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9243434215639549</v>
+        <v>0.7520093028023809</v>
       </c>
     </row>
     <row r="4">
@@ -3068,257 +2964,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7953269882827804</v>
+        <v>-0.9063702969807796</v>
       </c>
       <c r="C4" t="n">
-        <v>1.574156306937318e-05</v>
+        <v>1.394086053966768e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9017347551253122</v>
+        <v>-0.771997755106432</v>
       </c>
       <c r="C5" t="n">
-        <v>3.01021850691416e-05</v>
+        <v>6.529326185783096e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6570566001623118</v>
+        <v>-0.9673987618278456</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000568887222230701</v>
+        <v>3.265151253932049e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8650829926928989</v>
+        <v>0.009800910102400549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09441308932927944</v>
+        <v>0.9375142933768436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05699395890415076</v>
+        <v>0.0008739438064722794</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6405717870114427</v>
+        <v>3.102416826620219e-36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000948481978436582</v>
+        <v>-0.008537045331768798</v>
       </c>
       <c r="C9" t="n">
-        <v>1.573193800587824e-41</v>
+        <v>0.01007719944230847</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.009642758773494292</v>
+        <v>0.6408213529333323</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003756354680714896</v>
+        <v>9.431128502870621e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6347184052799713</v>
+        <v>0.7290039244982485</v>
       </c>
       <c r="C11" t="n">
-        <v>1.355844902525757e-08</v>
+        <v>6.202356212658178e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7005410213887411</v>
+        <v>0.3042350368837174</v>
       </c>
       <c r="C12" t="n">
-        <v>2.124592529022935e-08</v>
+        <v>0.08115019047276359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3532373074624973</v>
+        <v>-4.389899188780409e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0437477233605644</v>
+        <v>0.1996310221331261</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.7783938787446e-05</v>
+        <v>-7.338798812120433e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09353666677354851</v>
+        <v>0.8325871346626303</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.282365510720487e-09</v>
+        <v>-0.02984998266353509</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8134335892419777</v>
+        <v>0.3965627000287086</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.06698028666359064</v>
+        <v>0.03276617559908143</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0564951728189896</v>
+        <v>0.1052339839045828</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04908947539177416</v>
+        <v>-2.216567721075259</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01670009288680051</v>
+        <v>4.841123117277633e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.032838425713452</v>
+        <v>-0.007193020673798084</v>
       </c>
       <c r="C18" t="n">
-        <v>3.910331886256237e-06</v>
+        <v>0.02416141351723627</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005836614120829907</v>
+        <v>-0.002381922689768958</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07119787440529081</v>
+        <v>0.4866617016376846</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001303092987271355</v>
+        <v>3.779820598565719</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7144449571708051</v>
+        <v>2.069690340512314e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.998892297740698</v>
+        <v>3.675767837207787</v>
       </c>
       <c r="C21" t="n">
-        <v>8.13448118235846e-06</v>
+        <v>0.0001216030577658463</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.538278688155924</v>
+        <v>-3.374709943698205</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002496384599562117</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.481521469898064</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.261105914936584e-05</v>
+        <v>4.5663837183769e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR/France_other.xlsx
+++ b/outputs/ML_Results/carown_LR/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ8" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ18" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ14" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ8" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ32" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ10" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.813174806798406</v>
+        <v>0.8711197980046136</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005104391834953413</v>
+        <v>0.1388358660664359</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08344541531016812</v>
+        <v>0.1387534812233686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8025015870775489</v>
+        <v>0.6737325176967934</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9502765436374905</v>
+        <v>-0.9722943015170405</v>
       </c>
       <c r="C4" t="n">
-        <v>5.06489104903999e-07</v>
+        <v>1.54406521422119e-07</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8626577484887158</v>
+        <v>-0.7913542312762591</v>
       </c>
       <c r="C5" t="n">
-        <v>9.004023125104923e-06</v>
+        <v>3.289425224261274e-05</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.065318792408792</v>
+        <v>-0.9756578698115874</v>
       </c>
       <c r="C6" t="n">
-        <v>3.999890568030412e-07</v>
+        <v>3.985470707417717e-06</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0238249556205674</v>
+        <v>-0.04526383300569849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8503324805206582</v>
+        <v>0.713698281861606</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008950411732451256</v>
+        <v>0.000908073645464833</v>
       </c>
       <c r="C8" t="n">
-        <v>9.921244341806289e-38</v>
+        <v>3.480628583753253e-39</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01089200748048978</v>
+        <v>-0.008714405603675809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00109286766608866</v>
+        <v>0.008865819117824388</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5813962405755028</v>
+        <v>0.6435900214372545</v>
       </c>
       <c r="C10" t="n">
-        <v>2.016185532902557e-07</v>
+        <v>8.423815763464412e-09</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8130919872209085</v>
+        <v>0.6929744288626599</v>
       </c>
       <c r="C11" t="n">
-        <v>9.127692971165613e-11</v>
+        <v>3.164255700938873e-08</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4190505469608328</v>
+        <v>0.2772658957281554</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0163894393632822</v>
+        <v>0.1133758272975011</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.524183628065876e-05</v>
+        <v>-6.696750212015844e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.108945257087465</v>
+        <v>0.04999269402529813</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.212647396431365e-09</v>
+        <v>1.010704590483252e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9723585751489892</v>
+        <v>0.767678104040768</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03494523266907492</v>
+        <v>-0.02592791674268115</v>
       </c>
       <c r="C15" t="n">
-        <v>0.318845553079817</v>
+        <v>0.4482258627269168</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03381281514527027</v>
+        <v>0.06707929357766859</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09156221574747328</v>
+        <v>0.001303450434885684</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.147790325649471</v>
+        <v>-1.77164302602347</v>
       </c>
       <c r="C17" t="n">
-        <v>9.511861440370524e-07</v>
+        <v>3.038082351827576e-05</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006689850331062489</v>
+        <v>-0.007376109459764162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03901661917909389</v>
+        <v>0.02158228575475021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002362155020529284</v>
+        <v>-0.0006729170387579347</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4889582909745394</v>
+        <v>0.8390563282320023</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.589083288612381</v>
+        <v>0.8834197563484035</v>
       </c>
       <c r="C20" t="n">
-        <v>3.07256618584674e-07</v>
+        <v>0.02686735061404667</v>
       </c>
     </row>
     <row r="21">
@@ -713,23 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.404402181072343</v>
+        <v>0.1137582796931176</v>
       </c>
       <c r="C21" t="n">
-        <v>5.256256710765216e-06</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.772350148190748</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6.198156556309899e-06</v>
+        <v>0.8325886651526416</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.565783875185682</v>
+        <v>1.004897196347579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01709487733296084</v>
+        <v>0.08684222544371682</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009685071539861091</v>
+        <v>0.1462016430303706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9975996425587864</v>
+        <v>0.6509713203824027</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9757864100965854</v>
+        <v>-1.003890117421767</v>
       </c>
       <c r="C4" t="n">
-        <v>1.902865079097114e-07</v>
+        <v>5.734792047447071e-08</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7624867616448054</v>
+        <v>-0.7631736750230032</v>
       </c>
       <c r="C5" t="n">
-        <v>7.938988741677851e-05</v>
+        <v>6.168906663197707e-05</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8798550530051668</v>
+        <v>-0.8918275869507358</v>
       </c>
       <c r="C6" t="n">
-        <v>3.243322416679518e-05</v>
+        <v>2.003217936087511e-05</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003114318123036901</v>
+        <v>-0.01951890886277367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9800828724867547</v>
+        <v>0.8726858997587026</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009282194522482169</v>
+        <v>0.0008512380766648959</v>
       </c>
       <c r="C8" t="n">
-        <v>1.714328436081758e-39</v>
+        <v>4.713731736882407e-36</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01125454072926269</v>
+        <v>-0.007511224256566219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007732259287870918</v>
+        <v>0.02292887223037875</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.620141642401454</v>
+        <v>0.6532139619912507</v>
       </c>
       <c r="C10" t="n">
-        <v>3.240845009079462e-08</v>
+        <v>4.119697037146173e-09</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6513770351228277</v>
+        <v>0.7654592239026492</v>
       </c>
       <c r="C11" t="n">
-        <v>2.339466618474136e-07</v>
+        <v>6.852347867976797e-10</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3483045222368187</v>
+        <v>0.3547260318439419</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04773342047018968</v>
+        <v>0.04037464568273577</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.585317072439002e-05</v>
+        <v>-5.120764814338744e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1040432866146453</v>
+        <v>0.1307139871609658</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.435391038555825e-09</v>
+        <v>-2.32580248674987e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7843099151190677</v>
+        <v>0.4875395118359819</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03154410209787165</v>
+        <v>0.003756376601348838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3750189970890007</v>
+        <v>0.9099437177872332</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04598526709392593</v>
+        <v>0.04522101180449101</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02546250319552558</v>
+        <v>0.02217541865802005</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +957,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.009157662310828</v>
+        <v>-1.569292429591828</v>
       </c>
       <c r="C17" t="n">
-        <v>4.661879417062339e-06</v>
+        <v>0.0002466666339927402</v>
       </c>
     </row>
     <row r="18">
@@ -983,23 +970,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.004480863091115468</v>
+        <v>-0.007020364507927733</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1670808570942043</v>
+        <v>0.02939271085443965</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0004666313292058907</v>
+        <v>-0.002146412512979564</v>
       </c>
       <c r="C19" t="n">
-        <v>0.895395780735512</v>
+        <v>0.5187561184349039</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +996,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.718672140990676</v>
+        <v>0.64662312626493</v>
       </c>
       <c r="C20" t="n">
-        <v>2.757332034360551e-05</v>
+        <v>0.09867501116592287</v>
       </c>
     </row>
     <row r="21">
@@ -1022,23 +1009,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.271962843060712</v>
+        <v>0.3154407681696624</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0006355553033106536</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.104717277861679</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0001945685466861046</v>
+        <v>0.5602397752586858</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.387184252976138</v>
+        <v>0.9869284725708414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03258097237474563</v>
+        <v>0.09984198636135262</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1607581396822209</v>
+        <v>0.1932034935334767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6159726114168804</v>
+        <v>0.5462523550683459</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8427262671314113</v>
+        <v>-0.9484284740650349</v>
       </c>
       <c r="C4" t="n">
-        <v>5.491190144914988e-06</v>
+        <v>2.748325304175291e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6673735199257992</v>
+        <v>-0.8053718740339426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004749216525973628</v>
+        <v>2.477757778019123e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8843124604032629</v>
+        <v>-0.988683622099288</v>
       </c>
       <c r="C6" t="n">
-        <v>2.481591527522136e-05</v>
+        <v>2.133074334393045e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.008456633578425934</v>
+        <v>-0.05478041973904418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9448644563737841</v>
+        <v>0.6506485949815661</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008892394162480711</v>
+        <v>0.0009459855953256967</v>
       </c>
       <c r="C8" t="n">
-        <v>3.724209076716121e-38</v>
+        <v>1.199381385706711e-40</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.005829403254286632</v>
+        <v>-0.01106039190747402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07883700599114134</v>
+        <v>0.0008519222073321822</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.636278689365345</v>
+        <v>0.6695135921257503</v>
       </c>
       <c r="C10" t="n">
-        <v>8.905235174613364e-09</v>
+        <v>1.749553431732488e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7514271007430828</v>
+        <v>0.6429711649953045</v>
       </c>
       <c r="C11" t="n">
-        <v>1.452072102594885e-09</v>
+        <v>2.645919103837662e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2663390709605743</v>
+        <v>0.3982917657001004</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1274552505217131</v>
+        <v>0.02281029067977471</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.481690525255317e-05</v>
+        <v>-6.151245642131104e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1101853154093256</v>
+        <v>0.07032809232167044</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.895915066888887e-08</v>
+        <v>-2.533014063807315e-10</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5862315933517547</v>
+        <v>0.9941034359791214</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1227,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.04777048761937593</v>
+        <v>0.0004085502449309643</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1715663587231055</v>
+        <v>0.9903056883002377</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1240,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04368215522939035</v>
+        <v>0.04325320776313052</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02993482942194262</v>
+        <v>0.02931812794746474</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1253,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.103788832806742</v>
+        <v>-1.37999111721282</v>
       </c>
       <c r="C17" t="n">
-        <v>2.168610500907534e-06</v>
+        <v>0.0009883744252040449</v>
       </c>
     </row>
     <row r="18">
@@ -1292,23 +1266,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007177694973363112</v>
+        <v>-0.00892003830373236</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02564373983075239</v>
+        <v>0.005585370284065072</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0007980770158964811</v>
+        <v>-0.0001723766178751086</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8220936469795013</v>
+        <v>0.9601256544375568</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1292,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.58787539957818</v>
+        <v>0.8469743752832657</v>
       </c>
       <c r="C20" t="n">
-        <v>5.275878164383847e-05</v>
+        <v>0.03311955410633463</v>
       </c>
     </row>
     <row r="21">
@@ -1331,23 +1305,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.924497216096088</v>
+        <v>0.2669082484647196</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002215415866580119</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.002362142107893</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0002849606264002294</v>
+        <v>0.625772131972007</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.878342335654579</v>
+        <v>0.4383152486952228</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004521341994143597</v>
+        <v>0.4708807514604152</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2632864117744441</v>
+        <v>0.07911295180255383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4283461487289144</v>
+        <v>0.8046413900307381</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8679987606092295</v>
+        <v>-0.8818280767820059</v>
       </c>
       <c r="C4" t="n">
-        <v>5.660059730310935e-06</v>
+        <v>1.97873622649574e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7128669253143962</v>
+        <v>-0.7044606605523916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002996842232792962</v>
+        <v>0.0002275933623063098</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9345474320382953</v>
+        <v>-0.8397922940737923</v>
       </c>
       <c r="C6" t="n">
-        <v>6.63470760743353e-06</v>
+        <v>5.960331367290855e-05</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01714100716259191</v>
+        <v>-0.007521784200045806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8961935354795173</v>
+        <v>0.9506927333301042</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009083787313151873</v>
+        <v>0.0008752039785231575</v>
       </c>
       <c r="C8" t="n">
-        <v>2.408803738617958e-39</v>
+        <v>1.527076734810822e-37</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.008953923721124206</v>
+        <v>-0.01056150978927464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007443067137626981</v>
+        <v>0.00153797281694617</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6037796501132942</v>
+        <v>0.6206889372120978</v>
       </c>
       <c r="C10" t="n">
-        <v>5.078761629606387e-08</v>
+        <v>2.776236876205645e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.727985915598375</v>
+        <v>0.7793961403342041</v>
       </c>
       <c r="C11" t="n">
-        <v>7.069023220340713e-09</v>
+        <v>4.040919960503066e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3166530700296515</v>
+        <v>0.4511839807826295</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06996831377358399</v>
+        <v>0.009938678048578594</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1497,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.523440575330044e-05</v>
+        <v>-5.785170015562307e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1102818358018725</v>
+        <v>0.08836830412371818</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1510,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.201560504528055e-09</v>
+        <v>-1.239016378166679e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7948752287631995</v>
+        <v>0.7143937989138952</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1523,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.05444760121544806</v>
+        <v>-0.001041862093009964</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1213412326342785</v>
+        <v>0.9755889105635389</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1536,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05068343958747529</v>
+        <v>0.05525072668634731</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01316497072240227</v>
+        <v>0.006661255227642307</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1549,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.799392904708549</v>
+        <v>-1.511987282735471</v>
       </c>
       <c r="C17" t="n">
-        <v>3.916101551573561e-05</v>
+        <v>0.0003819661809046117</v>
       </c>
     </row>
     <row r="18">
@@ -1601,23 +1562,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007700536097564215</v>
+        <v>-0.004572462112694548</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01709911601672692</v>
+        <v>0.1577053278576734</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002683541284870736</v>
+        <v>0.00245371061402225</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4573543193578146</v>
+        <v>0.5016055626612117</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1588,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.318263560665627</v>
+        <v>0.6322924312750249</v>
       </c>
       <c r="C20" t="n">
-        <v>1.143964855980598e-06</v>
+        <v>0.1073993719187449</v>
       </c>
     </row>
     <row r="21">
@@ -1640,23 +1601,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.771575703619984</v>
+        <v>0.2987011890371225</v>
       </c>
       <c r="C21" t="n">
-        <v>7.285483907079683e-05</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.742925260952057</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6.098743840846794e-06</v>
+        <v>0.5808690011531289</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.859075000983697</v>
+        <v>0.8208084100724685</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004831717742597535</v>
+        <v>0.1746742009568666</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.274515276361752</v>
+        <v>0.1604072693436763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3983630834081353</v>
+        <v>0.6152050881573142</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9702521165713696</v>
+        <v>-0.8890053600902965</v>
       </c>
       <c r="C4" t="n">
-        <v>1.457210949291738e-07</v>
+        <v>1.356688167811057e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.785704110944658</v>
+        <v>-0.7797429201414521</v>
       </c>
       <c r="C5" t="n">
-        <v>3.628885857531557e-05</v>
+        <v>3.926124884898989e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8636248276118563</v>
+        <v>-0.9271885220609373</v>
       </c>
       <c r="C6" t="n">
-        <v>3.918964300530722e-05</v>
+        <v>8.660921528010008e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04226383751918579</v>
+        <v>-0.0478983816994987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7286051993906528</v>
+        <v>0.6920004172094437</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009039166589027113</v>
+        <v>0.0009073337603884201</v>
       </c>
       <c r="C8" t="n">
-        <v>6.115576068303767e-39</v>
+        <v>4.845082154189945e-40</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01016883919041443</v>
+        <v>-0.01009301266269073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002016574023734333</v>
+        <v>0.00211794096707464</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6166961669575062</v>
+        <v>0.5500985533640602</v>
       </c>
       <c r="C10" t="n">
-        <v>2.785890109882327e-08</v>
+        <v>6.49478439226884e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1767,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6576309139508465</v>
+        <v>0.7330984724070716</v>
       </c>
       <c r="C11" t="n">
-        <v>1.278342523974316e-07</v>
+        <v>3.311413788647839e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1780,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3997152730880519</v>
+        <v>0.3295356113340811</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02145153124892551</v>
+        <v>0.05683774133645131</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1793,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.483224190210311e-05</v>
+        <v>-7.728952031177454e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3081254964245593</v>
+        <v>0.02283841884365402</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1806,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.582476032313192e-08</v>
+        <v>1.620407072310376e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6436100553533779</v>
+        <v>0.6337653933634335</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1819,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0172698724414879</v>
+        <v>-0.005143172671176236</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6190510612699975</v>
+        <v>0.8779682296320881</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1832,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0360749877408282</v>
+        <v>0.05007412496114239</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07150462296696468</v>
+        <v>0.01283523046481098</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1845,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.913330490332726</v>
+        <v>-1.490257809024101</v>
       </c>
       <c r="C17" t="n">
-        <v>9.370127732823579e-06</v>
+        <v>0.0004853492359548481</v>
       </c>
     </row>
     <row r="18">
@@ -1910,23 +1858,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007272851759850706</v>
+        <v>-0.006933002808868156</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02434802449389608</v>
+        <v>0.03049013542320878</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002921276624899535</v>
+        <v>0.000334493902431346</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4176377432252515</v>
+        <v>0.9261470611214054</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1884,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.166785938951158</v>
+        <v>0.8040283713421817</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0003775816335200737</v>
+        <v>0.04046813885780345</v>
       </c>
     </row>
     <row r="21">
@@ -1949,23 +1897,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.203719128071288</v>
+        <v>0.05955658980481691</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0008542327706604719</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.74118405098837</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0009667241946657101</v>
+        <v>0.9105239525008317</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.941884670395376</v>
+        <v>0.905871268269054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002446607422699896</v>
+        <v>0.1301896589351769</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2802693738529037</v>
+        <v>0.2091657417096051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3941170180305159</v>
+        <v>0.5200227651973677</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9739170816976317</v>
+        <v>-0.9815526201357005</v>
       </c>
       <c r="C4" t="n">
-        <v>1.4169155684124e-07</v>
+        <v>1.636727623832042e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.908803906350575</v>
+        <v>-0.8315688416916678</v>
       </c>
       <c r="C5" t="n">
-        <v>1.713049943892752e-06</v>
+        <v>1.669741741265218e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8775041054294036</v>
+        <v>-0.9560808135932276</v>
       </c>
       <c r="C6" t="n">
-        <v>3.322675518417612e-05</v>
+        <v>4.749425790042593e-06</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.07442406416355679</v>
+        <v>-0.05829052461907906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5366935854166255</v>
+        <v>0.6388466365117889</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008616633214419922</v>
+        <v>0.0009246992942569953</v>
       </c>
       <c r="C8" t="n">
-        <v>1.745510559736454e-35</v>
+        <v>1.697730451681045e-40</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2037,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.007675383672555891</v>
+        <v>-0.01050986627443686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02174928139896592</v>
+        <v>0.001660426224700799</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2050,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6839365398830305</v>
+        <v>0.5689063600960722</v>
       </c>
       <c r="C10" t="n">
-        <v>9.135692240024245e-10</v>
+        <v>3.017488993537243e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2063,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7330618401469788</v>
+        <v>0.6248412048274172</v>
       </c>
       <c r="C11" t="n">
-        <v>5.418335873469133e-09</v>
+        <v>6.619040333757489e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2076,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3454191258498391</v>
+        <v>0.2688983250595159</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05106427288462257</v>
+        <v>0.1247771655410919</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2089,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.172274738663715e-05</v>
+        <v>-6.686746687373647e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07633830531131879</v>
+        <v>0.04912116049404337</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2102,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.088189257292385e-08</v>
+        <v>-5.549893797675986e-10</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5539779612820075</v>
+        <v>0.9869801001948396</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2115,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.06630927869660801</v>
+        <v>0.005094425736559914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06012876689971022</v>
+        <v>0.8802867703232362</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2128,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05310982770803135</v>
+        <v>0.05498490538402882</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009873133907030806</v>
+        <v>0.006311858532538832</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2141,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.927510834464014</v>
+        <v>-1.494300301417935</v>
       </c>
       <c r="C17" t="n">
-        <v>1.028930689489767e-05</v>
+        <v>0.0004305905168357569</v>
       </c>
     </row>
     <row r="18">
@@ -2219,23 +2154,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007933497491248312</v>
+        <v>-0.006938641660948972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0134910464296705</v>
+        <v>0.03167195551613097</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002577706456781253</v>
+        <v>-1.514351398232474e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4448538631403028</v>
+        <v>0.9964758080684276</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2180,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.142987219316782</v>
+        <v>0.7918451474100303</v>
       </c>
       <c r="C20" t="n">
-        <v>4.302703538904852e-06</v>
+        <v>0.04536087799020525</v>
       </c>
     </row>
     <row r="21">
@@ -2258,23 +2193,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.357313790923919</v>
+        <v>0.4458330479754991</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005840985233270355</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.3716683701274</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6.116005069545997e-05</v>
+        <v>0.4100177036984808</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.449560191455598</v>
+        <v>1.039164032503478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02591068052280267</v>
+        <v>0.08063811767054138</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1345889448775641</v>
+        <v>0.2492688067515499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6712053609646585</v>
+        <v>0.441220645411903</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9800776494665505</v>
+        <v>-0.9482984755788018</v>
       </c>
       <c r="C4" t="n">
-        <v>8.464886455478531e-08</v>
+        <v>4.271530150423257e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7599763257463765</v>
+        <v>-0.7935996548048764</v>
       </c>
       <c r="C5" t="n">
-        <v>5.228310677495268e-05</v>
+        <v>3.858734808636042e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.001487686443425</v>
+        <v>-0.9222244798948038</v>
       </c>
       <c r="C6" t="n">
-        <v>1.131030185794503e-06</v>
+        <v>8.992554705788867e-06</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2307,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03184422301999832</v>
+        <v>-0.06392829339685603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7882201937093651</v>
+        <v>0.6091860865040553</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008768758151306486</v>
+        <v>0.0009043793252322771</v>
       </c>
       <c r="C8" t="n">
-        <v>1.396849232938283e-37</v>
+        <v>5.892332183919904e-39</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00726908423132708</v>
+        <v>-0.009345404566854721</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02985570408353964</v>
+        <v>0.004665719699935483</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2346,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6244341425575153</v>
+        <v>0.5680614545735551</v>
       </c>
       <c r="C10" t="n">
-        <v>1.898487314171218e-08</v>
+        <v>2.532378763006365e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2359,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7266180301589046</v>
+        <v>0.7205592499059845</v>
       </c>
       <c r="C11" t="n">
-        <v>6.163198651467403e-09</v>
+        <v>6.726932707497332e-09</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2372,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2893584609034289</v>
+        <v>0.330576601927206</v>
       </c>
       <c r="C12" t="n">
-        <v>0.100630889252375</v>
+        <v>0.05661636489261584</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2385,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.877579005588995e-05</v>
+        <v>-6.412388254996546e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02033277215018855</v>
+        <v>0.06040048092668033</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2398,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.935553841620705e-10</v>
+        <v>3.268473752599521e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9838209717651452</v>
+        <v>0.9241808397665812</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2411,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0561351701139961</v>
+        <v>-0.008920506099373351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1083291686742911</v>
+        <v>0.7900546596609177</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2424,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04441872350990467</v>
+        <v>0.0581608869639737</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02988010075767602</v>
+        <v>0.00438816470939078</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2437,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.624895955388881</v>
+        <v>-1.394731826134957</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002065281901686521</v>
+        <v>0.0009230007113255782</v>
       </c>
     </row>
     <row r="18">
@@ -2528,23 +2450,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.004194098688910193</v>
+        <v>-0.007966995090710546</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1977501925446381</v>
+        <v>0.01249741206407314</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0001627405101375958</v>
+        <v>-0.001537029767624589</v>
       </c>
       <c r="C19" t="n">
-        <v>0.96438856607888</v>
+        <v>0.6451203890029604</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2476,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.717765132853278</v>
+        <v>0.7089092951121837</v>
       </c>
       <c r="C20" t="n">
-        <v>2.872016775387366e-05</v>
+        <v>0.0745230307840878</v>
       </c>
     </row>
     <row r="21">
@@ -2567,23 +2489,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.910876290627638</v>
+        <v>0.3148447647725099</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002286178287006878</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.000058109166132</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0002923346785128166</v>
+        <v>0.5602781318341929</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.041614475544934</v>
+        <v>1.01063826096916</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001771384766418845</v>
+        <v>0.08873620087431629</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1608450351290502</v>
+        <v>0.1796939912456582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6220525102376362</v>
+        <v>0.5823805687469296</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9842840709257696</v>
+        <v>-0.9740301430340607</v>
       </c>
       <c r="C4" t="n">
-        <v>1.376520590729936e-07</v>
+        <v>1.770078604813277e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2577,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7273035436088386</v>
+        <v>-0.8057388435829497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001692944061930148</v>
+        <v>2.623094425686561e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2590,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8063040423300353</v>
+        <v>-0.9183887383537653</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001899310457905731</v>
+        <v>1.212404892347784e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2603,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02496116432413896</v>
+        <v>-0.03154065144698006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.841707549748282</v>
+        <v>0.7998117699004222</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2616,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008749859244322903</v>
+        <v>0.0008576805913887771</v>
       </c>
       <c r="C8" t="n">
-        <v>7.847123698807711e-37</v>
+        <v>1.976966483903438e-36</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009530729102457365</v>
+        <v>-0.008213280855332522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004440302491696252</v>
+        <v>0.01281430726374981</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6605149844985304</v>
+        <v>0.647260257229937</v>
       </c>
       <c r="C10" t="n">
-        <v>3.416215034476677e-09</v>
+        <v>7.249333387119086e-09</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2655,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6656907225811025</v>
+        <v>0.7224280884678619</v>
       </c>
       <c r="C11" t="n">
-        <v>1.027830913180144e-07</v>
+        <v>7.627561208648815e-09</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2668,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2715918603538913</v>
+        <v>0.3423104237086556</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1215796870999206</v>
+        <v>0.04874953006138722</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2681,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.953780296394347e-05</v>
+        <v>-5.556212733659761e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0847286327443143</v>
+        <v>0.09527028097642015</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2694,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.844805421249736e-09</v>
+        <v>-1.365564903010588e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.780845569328156</v>
+        <v>0.6789333314553578</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2707,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.04271853086740748</v>
+        <v>-0.00398532488891627</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2275398890322026</v>
+        <v>0.9054589079782542</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2720,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05238927804852456</v>
+        <v>0.04359140596282665</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01136871722418901</v>
+        <v>0.02834199411800324</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2733,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.94654068459514</v>
+        <v>-1.536794835406411</v>
       </c>
       <c r="C17" t="n">
-        <v>8.290390433960836e-06</v>
+        <v>0.0002571090227333492</v>
       </c>
     </row>
     <row r="18">
@@ -2837,23 +2746,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006256245786118954</v>
+        <v>-0.007829065393607943</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05206849296074251</v>
+        <v>0.01368667541190731</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003020915317806658</v>
+        <v>-0.0007937155274893422</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3795923443862783</v>
+        <v>0.8164010950329711</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2772,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.247250541819637</v>
+        <v>0.6541592947109918</v>
       </c>
       <c r="C20" t="n">
-        <v>1.517481011343489e-06</v>
+        <v>0.0917940243422791</v>
       </c>
     </row>
     <row r="21">
@@ -2876,23 +2785,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.563560022352247</v>
+        <v>0.3729730030315461</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001617985387513607</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.710074734893025</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6.578644789055394e-06</v>
+        <v>0.482415428038671</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.922275694347778</v>
+        <v>0.3835490092169563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003073341324957174</v>
+        <v>0.5333937850308179</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1027692756898404</v>
+        <v>0.06834526554723476</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7520093028023809</v>
+        <v>0.8349198546197633</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9063702969807796</v>
+        <v>-0.8850091899725596</v>
       </c>
       <c r="C4" t="n">
-        <v>1.394086053966768e-06</v>
+        <v>1.720545703577888e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.771997755106432</v>
+        <v>-0.7023994604219027</v>
       </c>
       <c r="C5" t="n">
-        <v>6.529326185783096e-05</v>
+        <v>0.0002302787252890502</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9673987618278456</v>
+        <v>-0.9355583922141603</v>
       </c>
       <c r="C6" t="n">
-        <v>3.265151253932049e-06</v>
+        <v>7.086631560098996e-06</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009800910102400549</v>
+        <v>-0.02914768824743487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9375142933768436</v>
+        <v>0.8130409782999614</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008739438064722794</v>
+        <v>0.000963450519682831</v>
       </c>
       <c r="C8" t="n">
-        <v>3.102416826620219e-36</v>
+        <v>9.599478325369682e-43</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.008537045331768798</v>
+        <v>-0.008177675362551196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01007719944230847</v>
+        <v>0.01430375808237617</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6408213529333323</v>
+        <v>0.6434041894204576</v>
       </c>
       <c r="C10" t="n">
-        <v>9.431128502870621e-09</v>
+        <v>8.308984922465208e-09</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7290039244982485</v>
+        <v>0.6667574377883105</v>
       </c>
       <c r="C11" t="n">
-        <v>6.202356212658178e-09</v>
+        <v>1.19902786049292e-07</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +2964,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3042350368837174</v>
+        <v>0.2321818605438228</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08115019047276359</v>
+        <v>0.1862592632058884</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +2977,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.389899188780409e-05</v>
+        <v>-5.758040177669544e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1996310221331261</v>
+        <v>0.09104980386173542</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +2990,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.338798812120433e-09</v>
+        <v>-5.97331321952106e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8325871346626303</v>
+        <v>0.8608447710519826</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3003,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02984998266353509</v>
+        <v>-0.01612898558390622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3965627000287086</v>
+        <v>0.6362182507341383</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3016,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03276617559908143</v>
+        <v>0.05724941500697178</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1052339839045828</v>
+        <v>0.005418342571545628</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3029,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.216567721075259</v>
+        <v>-1.789107577993742</v>
       </c>
       <c r="C17" t="n">
-        <v>4.841123117277633e-07</v>
+        <v>2.439901920358835e-05</v>
       </c>
     </row>
     <row r="18">
@@ -3146,23 +3042,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007193020673798084</v>
+        <v>-0.006161321478677924</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02416141351723627</v>
+        <v>0.05792711400734792</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002381922689768958</v>
+        <v>0.002593970588070578</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4866617016376846</v>
+        <v>0.4786788343439883</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3068,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.779820598565719</v>
+        <v>0.7332266655208012</v>
       </c>
       <c r="C20" t="n">
-        <v>2.069690340512314e-05</v>
+        <v>0.06337484132004205</v>
       </c>
     </row>
     <row r="21">
@@ -3185,23 +3081,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.675767837207787</v>
+        <v>0.405219055766794</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001216030577658463</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.374709943698205</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4.5663837183769e-05</v>
+        <v>0.4547697502798154</v>
       </c>
     </row>
   </sheetData>
